--- a/biology/Botanique/Rhizophydiales/Rhizophydiales.xlsx
+++ b/biology/Botanique/Rhizophydiales/Rhizophydiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhizophydiales sont un ordre de champignons de la classe des Rhizophydiomycetes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles et genres non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 août 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 août 2023) :
 Alphamycetaceae Letcher, 2008
 Angulomycetaceae Letcher, 2008
 Aquamycetaceae Letcher, 2008
@@ -563,9 +577,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rhizophydiales Letcher, 2006[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rhizophydiales Letcher, 2006.
 </t>
         </is>
       </c>
@@ -594,7 +610,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Peter M Letcher, Martha J Powell, Perry F Churchill et James G Chambers, « Ultrastructural and molecular phylogenetic delineation of a new order, the Rhizophydiales (Chytridiomycota) », Mycological Research, Cambridge University Press, vol. 110, no Pt 8,‎ août 2006, p. 898-915 (ISSN 0953-7562 et 1469-8102, PMID 16919432, DOI 10.1016/J.MYCRES.2006.06.011)</t>
         </is>
